--- a/biology/Zoologie/Blikanasaurus/Blikanasaurus.xlsx
+++ b/biology/Zoologie/Blikanasaurus/Blikanasaurus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Blikanasaurus cromptoni
-Blikanasaurus est un genre éteint de dinosaures décrits comme des sauropodes herbivores basaux[1], ou plutôt aujourd’hui comme appartenant au clade des Anchisauria[2].
+Blikanasaurus est un genre éteint de dinosaures décrits comme des sauropodes herbivores basaux, ou plutôt aujourd’hui comme appartenant au clade des Anchisauria.
 Il a été découvert dans la partie supérieure de la formation géologique d'Elliot, datée du Trias supérieur (−210 Ma) dans le sud de l'Afrique. Son nom vient de celui d'une montagne du Lesotho appelée « Blikana ». C'est le genre type de la famille peu utilisée des Blikanasauridae.
-L'espèce type et seule espèce rattachée au genre, Blikanasaurus cromptoni, a été décrite par Peter Galton et Jacques Van Heerden (d) en 1985[1].
+L'espèce type et seule espèce rattachée au genre, Blikanasaurus cromptoni, a été décrite par Peter Galton et Jacques Van Heerden (d) en 1985.
 </t>
         </is>
       </c>
@@ -514,7 +526,9 @@
           <t>Découverte</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'holotype a été découvert dans les années 1980 dans le district de Leribe au Lesotho. La description initiale de Blikanasaurus cromptoni n'est fondée que sur un membre postérieur incomplet.
 </t>
@@ -545,9 +559,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son pied a une structure large et massive, qui avait conduit à classer ce sauropodomorphe dans une famille à part, celle des Blikanasauridae. Sa taille est estimée à 4 mètres pour un poids de 260 kg[1],[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son pied a une structure large et massive, qui avait conduit à classer ce sauropodomorphe dans une famille à part, celle des Blikanasauridae. Sa taille est estimée à 4 mètres pour un poids de 260 kg,.
 </t>
         </is>
       </c>
@@ -576,9 +592,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le cladogramme de Blair McPhee et de ses collègues, établi en 2014[2], montre la position du genre Blikanasaurus au sein du clade des Anchisauria :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le cladogramme de Blair McPhee et de ses collègues, établi en 2014, montre la position du genre Blikanasaurus au sein du clade des Anchisauria :
 </t>
         </is>
       </c>
@@ -607,7 +625,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>(en) Peter M. Galton et Jacques van Heerden, « Partial hindlimb of Blikanasaurus cromptoni n. gen. and n. sp.,representing a new family of prosauropod dinosaurs from the upper triassic of South Africa », Geobios, Elsevier, vol. 18, no 4,‎ janvier 1985, p. 509-516 (ISSN 0016-6995 et 0293-843X, OCLC 795968533, DOI 10.1016/S0016-6995(85)80003-6, lire en ligne)</t>
         </is>
